--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed5/result_data_RandomForest.xlsx
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.42379999999999</v>
+        <v>-21.40389999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.0102</v>
+        <v>-22.0156</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.22299999999999</v>
+        <v>-21.27640000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.0409</v>
+        <v>-20.32960000000001</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.83469999999998</v>
+        <v>-19.90879999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.90400000000001</v>
+        <v>-21.8182</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.9688</v>
+        <v>-21.8061</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2985</v>
+        <v>-22.29179999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.03760000000001</v>
+        <v>-22.11460000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.39189999999998</v>
+        <v>-21.38849999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.48799999999997</v>
+        <v>-21.50819999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.73280000000001</v>
+        <v>-21.65619999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.69099999999999</v>
+        <v>-21.62729999999998</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.819</v>
+        <v>-21.74309999999999</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.59019999999998</v>
+        <v>-20.32629999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.42570000000001</v>
+        <v>-21.48300000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.78230000000001</v>
+        <v>-21.8495</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.33109999999999</v>
+        <v>-21.24289999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
